--- a/cge_variables.xlsx
+++ b/cge_variables.xlsx
@@ -2207,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,487 +2222,324 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AGR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>('CAP', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1135500.496578688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>('CAP', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>131043.4885862961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>('CAP', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2283937.65102503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ESW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>('CAP', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>426893.2019172087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>('CAP', 'CON')</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>744992.4177883761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WRT</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>('CAP', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1787008.499114996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TRS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>('CAP', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>425529.1181899618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AFS</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>('CAP', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>224861.258063752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>('CAP', 'INF')</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>316229.8417085022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>('CAP', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>917723.7076114072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>('CAP', 'REA')</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1029993.646087451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PBS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>('CAP', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>418612.9897780325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PAD</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>('CAP', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>99793.11102378671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EDU</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>('CAP', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>162559.2634633618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HHS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>('CAP', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>213874.0429722403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>('CAP', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>265197.5242526537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AGR</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+          <t>('LAB', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>580692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+          <t>('LAB', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>23593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+          <t>('LAB', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>959036.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ESW</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+          <t>('LAB', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>92438</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+          <t>('LAB', 'CON')</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>576094</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>WRT</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+          <t>('LAB', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>975807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TRS</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+          <t>('LAB', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>241220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AFS</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+          <t>('LAB', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>127419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+          <t>('LAB', 'INF')</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>156760</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+          <t>('LAB', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>427069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+          <t>('LAB', 'REA')</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>56837</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PBS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+          <t>('LAB', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>725200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PAD</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+          <t>('LAB', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>612367</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EDU</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+          <t>('LAB', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>559598</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HHS</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+          <t>('LAB', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>84287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+          <t>('LAB', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>98666.46999999974</v>
       </c>
     </row>
@@ -3178,7 +3015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,488 +3030,2565 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AGR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1135500.496578688</v>
+          <t>('AGR', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>996184.050494849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131043.4885862961</v>
+          <t>('AGR', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>976.8286270496617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2283937.65102503</v>
+          <t>('AGR', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1335493.450539227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ESW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>426893.2019172087</v>
+          <t>('AGR', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2112.539597468874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>744992.4177883761</v>
+          <t>('AGR', 'CON')</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3120.123852353638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WRT</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1787008.499114996</v>
+          <t>('AGR', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13906.41378521889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TRS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>425529.1181899618</v>
+          <t>('AGR', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>790.3713158162036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AFS</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>224861.258063752</v>
+          <t>('AGR', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8004.610860240749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>316229.8417085022</v>
+          <t>('AGR', 'INF')</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>567.3164122969201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>917723.7076114072</v>
+          <t>('AGR', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>831.6523942152977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1029993.646087451</v>
+          <t>('AGR', 'REA')</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>994.4142883118851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PBS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>418612.9897780325</v>
+          <t>('AGR', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2668.348360238089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PAD</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>99793.11102378671</v>
+          <t>('AGR', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2408.744516456872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EDU</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>162559.2634633618</v>
+          <t>('AGR', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>887.2225417552854</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HHS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>213874.0429722403</v>
+          <t>('AGR', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>769.1315417398619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>265197.5242526537</v>
+          <t>('AGR', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>841.3175629623918</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AGR</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>580692</v>
+          <t>('MIN', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>43.99404506602389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>23593</v>
+          <t>('MIN', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24092.79883337583</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>959036.53</v>
+          <t>('MIN', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>386766.2071966509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ESW</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>92438</v>
+          <t>('MIN', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25400.93814486871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>576094</v>
+          <t>('MIN', 'CON')</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>30205.13465254084</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>WRT</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>975807</v>
+          <t>('MIN', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>554.7138472670425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TRS</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>241220</v>
+          <t>('MIN', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>60.33259108559908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AFS</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>127419</v>
+          <t>('MIN', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>121.3883533638887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>156760</v>
+          <t>('MIN', 'INF')</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>44.76267229817115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>427069</v>
+          <t>('MIN', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>87.47359940953065</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>56837</v>
+          <t>('MIN', 'REA')</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>619.7676712045622</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PBS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>725200</v>
+          <t>('MIN', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>110.111208618299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PAD</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>612367</v>
+          <t>('MIN', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>75.57409461921016</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EDU</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>559598</v>
+          <t>('MIN', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>40.98978434403799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HHS</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>84287</v>
+          <t>('MIN', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>17.20957189616361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>98666.46999999974</v>
+          <t>('MIN', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28.85883731522917</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>('MAN', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>562317.1813914984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>('MAN', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>32889.50558041631</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>('MAN', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3536384.555394445</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>('MAN', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>169840.3628270353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>('MAN', 'CON')</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1185357.660552872</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>('MAN', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>159824.3694267376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>('MAN', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>421376.2451161093</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>('MAN', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>232131.569601793</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>('MAN', 'INF')</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>128836.3952206124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>('MAN', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>94652.76397187269</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>('MAN', 'REA')</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>43047.18661193399</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>('MAN', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>127914.3668898133</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>('MAN', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>25993.78164756393</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>('MAN', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>38145.22126086871</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>('MAN', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>32035.35572329106</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>('MAN', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>53452.78309609117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>('ESW', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>23680.12450086494</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>('ESW', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4258.121092261274</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>('ESW', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>251159.6278232176</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>('ESW', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>38201.89914724839</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>('ESW', 'CON')</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>41069.58495758228</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>('ESW', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>68364.54647427362</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>('ESW', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>29101.75632494179</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>('ESW', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>14559.03440803147</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>('ESW', 'INF')</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>23427.48332184359</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>('ESW', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>46150.93133109502</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>('ESW', 'REA')</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>21759.37696278335</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>('ESW', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>46542.62425884105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>('ESW', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7503.299767465179</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>('ESW', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7286.174502210705</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>('ESW', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7097.341416109978</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>('ESW', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7416.897539297385</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>('CON', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>224.7272828615001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>('CON', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>173.8153879829501</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>('CON', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4996.512834695077</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>('CON', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>276.6235712497684</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>('CON', 'CON')</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1232.245435416442</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>('CON', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5856.068227410703</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>('CON', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2040.773234874782</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>('CON', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1134.678551830647</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>('CON', 'INF')</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4263.535655062377</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>('CON', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2782.808024353337</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>('CON', 'REA')</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>316.9983391350282</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>('CON', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>14455.75492983291</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>('CON', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>206.9246343398124</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>('CON', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>130.9767888995716</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>('CON', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>912.0891916591041</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>('CON', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>338.63275475275</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>('WRT', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>36797.3558384009</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>('WRT', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5431.789807406018</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>('WRT', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1083840.331624043</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>('WRT', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>36567.36673926556</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>('WRT', 'CON')</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>176115.7238993268</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>('WRT', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>629355.3653459012</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>('WRT', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>50782.20817613851</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>('WRT', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>180339.3673151789</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>('WRT', 'INF')</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>40468.48989345161</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>('WRT', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>79355.15029333404</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>('WRT', 'REA')</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>45911.62510533771</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>('WRT', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>104995.5931434584</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>('WRT', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>43593.4829173751</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>('WRT', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>24589.96981740024</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>('WRT', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>22665.76219802206</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>('WRT', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>40428.24116361269</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>('TRS', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>17531.40922853843</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>('TRS', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3349.304543958308</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>('TRS', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>195974.6734952563</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>('TRS', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2724.247464785552</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>('TRS', 'CON')</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>18679.52557679249</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>('TRS', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>118620.5156491477</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>('TRS', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>273817.9512093465</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>('TRS', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>9177.580968609169</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>('TRS', 'INF')</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>33246.43879831057</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>('TRS', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5642.141361711995</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>('TRS', 'REA')</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>14363.30388731421</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>('TRS', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>25390.47786541112</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>('TRS', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>22661.60505308602</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>('TRS', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4451.960926071457</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>('TRS', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1068.949165803444</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>('TRS', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>887.9321545985744</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>('AFS', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>190.5485593842953</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>('AFS', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>31.68824515194521</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>('AFS', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4123.192252520734</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>('AFS', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>170.525831571405</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>('AFS', 'CON')</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>657.5077035740391</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>('AFS', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2161.22177472801</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>('AFS', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1554.140067831092</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>('AFS', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>129651.1464599214</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>('AFS', 'INF')</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>863.7331225685518</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>('AFS', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3906.237028514126</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>('AFS', 'REA')</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>233.7506847980509</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>('AFS', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2384.908631432158</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>('AFS', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>14131.62372138642</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>('AFS', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>141.2260852838927</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>('AFS', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>454.224649948026</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>('AFS', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2015.03857679833</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>('INF', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>10089.9896440092</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>('INF', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1033.763083661777</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>('INF', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>87400.57085120806</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>('INF', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6409.948712335483</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>('INF', 'CON')</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>16821.84852122067</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>('INF', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>33324.55059423266</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>('INF', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>16030.92241827518</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>('INF', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8767.879875138795</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>('INF', 'INF')</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>52028.20605016277</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>('INF', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>35141.4421327932</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>('INF', 'REA')</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>22237.90806269026</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>('INF', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>23949.54476326111</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>('INF', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>37082.79537782534</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>('INF', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4070.394710307927</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>('INF', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4276.69932878695</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>('INF', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4302.918261308165</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>('FIN', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>29965.6972786291</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>('FIN', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3375.075360705922</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>('FIN', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>280657.780433469</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>('FIN', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>31702.75958278121</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>('FIN', 'CON')</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>87687.13267621709</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>('FIN', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>108470.3227140286</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>('FIN', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>54041.78996625963</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>('FIN', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>10616.88118288948</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>('FIN', 'INF')</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>39079.32421015717</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>('FIN', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>544109.0187771801</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>('FIN', 'REA')</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>63852.75474085637</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>('FIN', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>74920.82107145021</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>('FIN', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>117868.7463496854</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>('FIN', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>14279.81208682949</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>('FIN', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>15635.81331660888</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>('FIN', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>10995.11004725444</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>('REA', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>9387.562623335931</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>('REA', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4251.761191120128</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>('REA', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>131850.0203817157</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>('REA', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7026.402470984634</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>('REA', 'CON')</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2414.365692738618</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>('REA', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>212606.6136742881</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>('REA', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>36242.20451189306</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>('REA', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>23664.4564037997</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>('REA', 'INF')</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>82034.16324574809</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>('REA', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>148991.1948680506</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>('REA', 'REA')</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>63319.5053283951</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>('REA', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>109936.0050247709</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>('REA', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>9056.529986120127</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>('REA', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>20009.95200306803</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>('REA', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>16409.31651151967</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>('REA', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>16860.76859074634</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>('PBS', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>7671.725655247233</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>('PBS', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1198.499581918997</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>('PBS', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>93942.00139192962</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>('PBS', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>13290.59523430951</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>('PBS', 'CON')</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>54723.08811872249</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>('PBS', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>41335.30632651814</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>('PBS', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>131563.2974169935</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>('PBS', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>41427.66918069134</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>('PBS', 'INF')</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>122915.7609529236</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>('PBS', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>265714.1567284354</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>('PBS', 'REA')</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>54806.72631406299</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>('PBS', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>280494.5109468997</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>('PBS', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>10593.21682983673</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>('PBS', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5684.394091299144</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>('PBS', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>28859.09469763844</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>('PBS', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>10795.41906703843</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>('PAD', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>130.3430781668181</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>('PAD', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>59.17207945961287</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>('PAD', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1833.370805769428</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>('PAD', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>285.6756973789712</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>('PAD', 'CON')</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>32.8274165087924</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>('PAD', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2959.766329414751</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>('PAD', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>504.2821752044293</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>('PAD', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>329.3262663006252</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>('PAD', 'INF')</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1142.065415761599</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>('PAD', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2074.232428719989</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>('PAD', 'REA')</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>881.4898055408516</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>('PAD', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1530.181350854171</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>('PAD', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>200553.4450487138</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>('PAD', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>278.5757751426285</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>('PAD', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>228.4063210516134</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>('PAD', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>224.8375270473168</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>('EDU', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2778.315250756939</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>('EDU', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>542.7758068847991</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>('EDU', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>37061.93836946738</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>('EDU', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>5019.468010577606</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>('EDU', 'CON')</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>11282.78686576815</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>('EDU', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>15112.70997075617</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>('EDU', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>18494.36720134626</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>('EDU', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2317.133481337426</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>('EDU', 'INF')</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3727.739661860719</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>('EDU', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>9138.766773565736</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>('EDU', 'REA')</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>6348.413799460275</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>('EDU', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>26823.73566237933</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>('EDU', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>3771.408181945571</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>('EDU', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1655.903869521936</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>('EDU', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>7689.051612621561</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>('EDU', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2710.279428830022</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>('HHS', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>325.8283497189743</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>('HHS', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>51.47494382944985</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('HHS', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6916.856511036302</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('HHS', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>369.233986241517</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>('HHS', 'CON')</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1775.27247268218</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('HHS', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>5928.014601319257</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>('HHS', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1031.395597177054</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('HHS', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1608.551307985471</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('HHS', 'INF')</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>677.4327596080684</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('HHS', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1698.715141718269</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('HHS', 'REA')</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>645.5155124368843</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('HHS', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1645.530889760532</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>('HHS', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>761.9280649988186</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('HHS', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>537.7236817026917</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>('HHS', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>11949.50026854712</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>('HHS', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>386.8847934372729</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('OTH', 'AGR')</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1046.295292655768</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>('OTH', 'MIN')</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>130.1836001021431</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>('OTH', 'MAN')</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>11809.09997807655</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('OTH', 'ESW')</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>825.7796476708539</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('OTH', 'CON')</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3297.724954117424</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>('OTH', 'WRT')</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>11905.56344431094</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('OTH', 'TRS')</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2030.975650240378</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>('OTH', 'AFS')</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>7229.999439492259</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('OTH', 'INF')</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1917.548880912487</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('OTH', 'FIN')</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>5140.148725132723</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('OTH', 'REA')</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1583.233059004502</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('OTH', 'PBS')</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>5884.108741303054</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('OTH', 'PAD')</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1109.271824274989</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('OTH', 'EDU')</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>3763.941165659353</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>('OTH', 'HHS')</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1794.712358636747</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('OTH', 'OTH')</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>30230.98358170662</v>
       </c>
     </row>
   </sheetData>

--- a/cge_variables.xlsx
+++ b/cge_variables.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="F" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="X" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Z" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Xp" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Xg" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Xv" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="E" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="M" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="D" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="pf" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="py" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="pz" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="pq" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="pe" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="pm" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="pd" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="epsilon" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Sp" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Sg" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Td" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Tz" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Tm" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="X" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Z" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xp" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xv" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="D" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pf" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="py" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pz" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pq" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pe" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pm" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pd" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="epsilon" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sp" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sg" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Td" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tz" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tm" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/cge_variables.xlsx
+++ b/cge_variables.xlsx
@@ -467,7 +467,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -477,7 +477,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -497,7 +497,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -507,7 +507,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -517,7 +517,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -527,7 +527,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -537,7 +537,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -547,7 +547,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -557,7 +557,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -567,7 +567,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -597,7 +597,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -607,7 +607,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -617,7 +617,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -654,7 +654,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -664,7 +664,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -674,7 +674,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -684,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -694,7 +694,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -704,7 +704,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -714,7 +714,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -724,7 +724,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -734,7 +734,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -744,7 +744,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -754,7 +754,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -784,7 +784,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -794,7 +794,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -804,7 +804,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -841,7 +841,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -861,7 +861,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -871,7 +871,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -881,7 +881,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -891,7 +891,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -911,7 +911,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -921,7 +921,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -931,7 +931,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -941,7 +941,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -971,7 +971,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -981,7 +981,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -991,7 +991,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1075,7 +1075,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1085,7 +1085,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1095,7 +1095,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1105,7 +1105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1115,7 +1115,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1125,7 +1125,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1135,7 +1135,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1145,7 +1145,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1155,7 +1155,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1165,7 +1165,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1175,7 +1175,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1205,7 +1205,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1215,7 +1215,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1225,7 +1225,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1262,7 +1262,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1272,7 +1272,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1282,7 +1282,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1292,7 +1292,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1302,7 +1302,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1312,7 +1312,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1322,7 +1322,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1332,7 +1332,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1342,7 +1342,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1352,7 +1352,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1362,7 +1362,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1392,7 +1392,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1402,7 +1402,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1412,7 +1412,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1449,7 +1449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1459,7 +1459,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1469,7 +1469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1479,7 +1479,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1489,7 +1489,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1499,7 +1499,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1509,7 +1509,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1519,7 +1519,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1529,7 +1529,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1539,7 +1539,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1549,7 +1549,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1579,7 +1579,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1589,7 +1589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1599,7 +1599,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1636,7 +1636,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1646,7 +1646,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1656,7 +1656,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1666,7 +1666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1676,7 +1676,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1686,7 +1686,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1696,7 +1696,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1706,7 +1706,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1716,7 +1716,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1726,7 +1726,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1736,7 +1736,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1766,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1776,7 +1776,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1786,7 +1786,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1823,7 +1823,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1833,7 +1833,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1843,7 +1843,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1853,7 +1853,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1863,7 +1863,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1873,7 +1873,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1883,7 +1883,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1893,7 +1893,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1903,7 +1903,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1913,7 +1913,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1923,7 +1923,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1953,7 +1953,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1963,7 +1963,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1973,7 +1973,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2010,7 +2010,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2020,7 +2020,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2030,7 +2030,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2040,7 +2040,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2050,7 +2050,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2060,7 +2060,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2070,7 +2070,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2080,7 +2080,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2090,7 +2090,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2100,7 +2100,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2110,7 +2110,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2140,7 +2140,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2150,7 +2150,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2160,7 +2160,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2226,7 +2226,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('CAP', 'AGR')</t>
+          <t>('CAP', 'AFF')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2236,7 +2236,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('CAP', 'MIN')</t>
+          <t>('CAP', 'MAQ')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2246,7 +2246,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('CAP', 'MAN')</t>
+          <t>('CAP', 'MFG')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2256,7 +2256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('CAP', 'ESW')</t>
+          <t>('CAP', 'ESWW')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2266,7 +2266,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('CAP', 'CON')</t>
+          <t>('CAP', 'CNS')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2276,7 +2276,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('CAP', 'WRT')</t>
+          <t>('CAP', 'TRD')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2286,7 +2286,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('CAP', 'TRS')</t>
+          <t>('CAP', 'TAS')</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2296,7 +2296,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('CAP', 'AFS')</t>
+          <t>('CAP', 'AFSA')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2306,7 +2306,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('CAP', 'INF')</t>
+          <t>('CAP', 'IAC')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2316,7 +2316,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('CAP', 'FIN')</t>
+          <t>('CAP', 'FIA')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2326,7 +2326,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('CAP', 'REA')</t>
+          <t>('CAP', 'REOD')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2356,7 +2356,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('CAP', 'EDU')</t>
+          <t>('CAP', 'EDUC')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2366,7 +2366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('CAP', 'HHS')</t>
+          <t>('CAP', 'HHSW')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2376,7 +2376,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('CAP', 'OTH')</t>
+          <t>('CAP', 'OS')</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2386,7 +2386,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('LAB', 'AGR')</t>
+          <t>('LAB', 'AFF')</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2396,7 +2396,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('LAB', 'MIN')</t>
+          <t>('LAB', 'MAQ')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2406,7 +2406,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('LAB', 'MAN')</t>
+          <t>('LAB', 'MFG')</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2416,7 +2416,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('LAB', 'ESW')</t>
+          <t>('LAB', 'ESWW')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2426,7 +2426,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('LAB', 'CON')</t>
+          <t>('LAB', 'CNS')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2436,7 +2436,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('LAB', 'WRT')</t>
+          <t>('LAB', 'TRD')</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2446,7 +2446,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('LAB', 'TRS')</t>
+          <t>('LAB', 'TAS')</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2456,7 +2456,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('LAB', 'AFS')</t>
+          <t>('LAB', 'AFSA')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2466,7 +2466,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('LAB', 'INF')</t>
+          <t>('LAB', 'IAC')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2476,7 +2476,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('LAB', 'FIN')</t>
+          <t>('LAB', 'FIA')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2486,7 +2486,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('LAB', 'REA')</t>
+          <t>('LAB', 'REOD')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2516,7 +2516,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('LAB', 'EDU')</t>
+          <t>('LAB', 'EDUC')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2526,7 +2526,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('LAB', 'HHS')</t>
+          <t>('LAB', 'HHSW')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2536,7 +2536,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('LAB', 'OTH')</t>
+          <t>('LAB', 'OS')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2660,7 +2660,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2670,7 +2670,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2680,7 +2680,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2690,7 +2690,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2700,7 +2700,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2710,7 +2710,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2720,7 +2720,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2730,7 +2730,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2740,7 +2740,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2750,7 +2750,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2760,7 +2760,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2790,7 +2790,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2800,7 +2800,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2810,7 +2810,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2847,7 +2847,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2857,7 +2857,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2867,7 +2867,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2877,7 +2877,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2887,7 +2887,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2897,7 +2897,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2907,7 +2907,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2917,7 +2917,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2927,7 +2927,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2937,7 +2937,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2947,7 +2947,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2977,7 +2977,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2987,7 +2987,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2997,7 +2997,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3034,7 +3034,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('AGR', 'AGR')</t>
+          <t>('AFF', 'AFF')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3044,7 +3044,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('AGR', 'MIN')</t>
+          <t>('AFF', 'MAQ')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3054,7 +3054,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('AGR', 'MAN')</t>
+          <t>('AFF', 'MFG')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3064,7 +3064,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('AGR', 'ESW')</t>
+          <t>('AFF', 'ESWW')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3074,7 +3074,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('AGR', 'CON')</t>
+          <t>('AFF', 'CNS')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3084,7 +3084,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('AGR', 'WRT')</t>
+          <t>('AFF', 'TRD')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3094,7 +3094,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('AGR', 'TRS')</t>
+          <t>('AFF', 'TAS')</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3104,7 +3104,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('AGR', 'AFS')</t>
+          <t>('AFF', 'AFSA')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3114,7 +3114,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('AGR', 'INF')</t>
+          <t>('AFF', 'IAC')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3124,7 +3124,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('AGR', 'FIN')</t>
+          <t>('AFF', 'FIA')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3134,7 +3134,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('AGR', 'REA')</t>
+          <t>('AFF', 'REOD')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3144,7 +3144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('AGR', 'PBS')</t>
+          <t>('AFF', 'PBS')</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3154,7 +3154,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('AGR', 'PAD')</t>
+          <t>('AFF', 'PAD')</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3164,7 +3164,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('AGR', 'EDU')</t>
+          <t>('AFF', 'EDUC')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3174,7 +3174,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('AGR', 'HHS')</t>
+          <t>('AFF', 'HHSW')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3184,7 +3184,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('AGR', 'OTH')</t>
+          <t>('AFF', 'OS')</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3194,7 +3194,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('MIN', 'AGR')</t>
+          <t>('MAQ', 'AFF')</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3204,7 +3204,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('MIN', 'MIN')</t>
+          <t>('MAQ', 'MAQ')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3214,7 +3214,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('MIN', 'MAN')</t>
+          <t>('MAQ', 'MFG')</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3224,7 +3224,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('MIN', 'ESW')</t>
+          <t>('MAQ', 'ESWW')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3234,7 +3234,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('MIN', 'CON')</t>
+          <t>('MAQ', 'CNS')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3244,7 +3244,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('MIN', 'WRT')</t>
+          <t>('MAQ', 'TRD')</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3254,7 +3254,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('MIN', 'TRS')</t>
+          <t>('MAQ', 'TAS')</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3264,7 +3264,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('MIN', 'AFS')</t>
+          <t>('MAQ', 'AFSA')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3274,7 +3274,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('MIN', 'INF')</t>
+          <t>('MAQ', 'IAC')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3284,7 +3284,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('MIN', 'FIN')</t>
+          <t>('MAQ', 'FIA')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3294,7 +3294,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('MIN', 'REA')</t>
+          <t>('MAQ', 'REOD')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3304,7 +3304,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('MIN', 'PBS')</t>
+          <t>('MAQ', 'PBS')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3314,7 +3314,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('MIN', 'PAD')</t>
+          <t>('MAQ', 'PAD')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3324,7 +3324,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('MIN', 'EDU')</t>
+          <t>('MAQ', 'EDUC')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3334,7 +3334,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('MIN', 'HHS')</t>
+          <t>('MAQ', 'HHSW')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3344,7 +3344,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('MIN', 'OTH')</t>
+          <t>('MAQ', 'OS')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3354,7 +3354,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('MAN', 'AGR')</t>
+          <t>('MFG', 'AFF')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3364,7 +3364,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('MAN', 'MIN')</t>
+          <t>('MFG', 'MAQ')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3374,7 +3374,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('MAN', 'MAN')</t>
+          <t>('MFG', 'MFG')</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3384,7 +3384,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('MAN', 'ESW')</t>
+          <t>('MFG', 'ESWW')</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3394,7 +3394,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('MAN', 'CON')</t>
+          <t>('MFG', 'CNS')</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3404,7 +3404,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('MAN', 'WRT')</t>
+          <t>('MFG', 'TRD')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3414,7 +3414,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('MAN', 'TRS')</t>
+          <t>('MFG', 'TAS')</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3424,7 +3424,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('MAN', 'AFS')</t>
+          <t>('MFG', 'AFSA')</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3434,7 +3434,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('MAN', 'INF')</t>
+          <t>('MFG', 'IAC')</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3444,7 +3444,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('MAN', 'FIN')</t>
+          <t>('MFG', 'FIA')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3454,7 +3454,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('MAN', 'REA')</t>
+          <t>('MFG', 'REOD')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3464,7 +3464,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('MAN', 'PBS')</t>
+          <t>('MFG', 'PBS')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3474,7 +3474,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('MAN', 'PAD')</t>
+          <t>('MFG', 'PAD')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3484,7 +3484,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('MAN', 'EDU')</t>
+          <t>('MFG', 'EDUC')</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3494,7 +3494,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('MAN', 'HHS')</t>
+          <t>('MFG', 'HHSW')</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3504,7 +3504,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('MAN', 'OTH')</t>
+          <t>('MFG', 'OS')</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3514,7 +3514,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('ESW', 'AGR')</t>
+          <t>('ESWW', 'AFF')</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3524,7 +3524,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('ESW', 'MIN')</t>
+          <t>('ESWW', 'MAQ')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3534,7 +3534,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('ESW', 'MAN')</t>
+          <t>('ESWW', 'MFG')</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3544,7 +3544,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('ESW', 'ESW')</t>
+          <t>('ESWW', 'ESWW')</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3554,7 +3554,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('ESW', 'CON')</t>
+          <t>('ESWW', 'CNS')</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3564,7 +3564,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('ESW', 'WRT')</t>
+          <t>('ESWW', 'TRD')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3574,7 +3574,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('ESW', 'TRS')</t>
+          <t>('ESWW', 'TAS')</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3584,7 +3584,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('ESW', 'AFS')</t>
+          <t>('ESWW', 'AFSA')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3594,7 +3594,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('ESW', 'INF')</t>
+          <t>('ESWW', 'IAC')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3604,7 +3604,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('ESW', 'FIN')</t>
+          <t>('ESWW', 'FIA')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3614,7 +3614,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('ESW', 'REA')</t>
+          <t>('ESWW', 'REOD')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3624,7 +3624,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('ESW', 'PBS')</t>
+          <t>('ESWW', 'PBS')</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3634,7 +3634,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('ESW', 'PAD')</t>
+          <t>('ESWW', 'PAD')</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3644,7 +3644,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('ESW', 'EDU')</t>
+          <t>('ESWW', 'EDUC')</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3654,7 +3654,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('ESW', 'HHS')</t>
+          <t>('ESWW', 'HHSW')</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3664,7 +3664,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('ESW', 'OTH')</t>
+          <t>('ESWW', 'OS')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3674,7 +3674,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('CON', 'AGR')</t>
+          <t>('CNS', 'AFF')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3684,7 +3684,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('CON', 'MIN')</t>
+          <t>('CNS', 'MAQ')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3694,7 +3694,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('CON', 'MAN')</t>
+          <t>('CNS', 'MFG')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3704,7 +3704,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('CON', 'ESW')</t>
+          <t>('CNS', 'ESWW')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3714,7 +3714,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('CON', 'CON')</t>
+          <t>('CNS', 'CNS')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3724,7 +3724,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('CON', 'WRT')</t>
+          <t>('CNS', 'TRD')</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3734,7 +3734,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('CON', 'TRS')</t>
+          <t>('CNS', 'TAS')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3744,7 +3744,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('CON', 'AFS')</t>
+          <t>('CNS', 'AFSA')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3754,7 +3754,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('CON', 'INF')</t>
+          <t>('CNS', 'IAC')</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3764,7 +3764,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('CON', 'FIN')</t>
+          <t>('CNS', 'FIA')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3774,7 +3774,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('CON', 'REA')</t>
+          <t>('CNS', 'REOD')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3784,7 +3784,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('CON', 'PBS')</t>
+          <t>('CNS', 'PBS')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3794,7 +3794,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('CON', 'PAD')</t>
+          <t>('CNS', 'PAD')</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3804,7 +3804,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('CON', 'EDU')</t>
+          <t>('CNS', 'EDUC')</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3814,7 +3814,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('CON', 'HHS')</t>
+          <t>('CNS', 'HHSW')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3824,7 +3824,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('CON', 'OTH')</t>
+          <t>('CNS', 'OS')</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3834,7 +3834,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('WRT', 'AGR')</t>
+          <t>('TRD', 'AFF')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3844,7 +3844,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('WRT', 'MIN')</t>
+          <t>('TRD', 'MAQ')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3854,7 +3854,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('WRT', 'MAN')</t>
+          <t>('TRD', 'MFG')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3864,7 +3864,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('WRT', 'ESW')</t>
+          <t>('TRD', 'ESWW')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3874,7 +3874,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('WRT', 'CON')</t>
+          <t>('TRD', 'CNS')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3884,7 +3884,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('WRT', 'WRT')</t>
+          <t>('TRD', 'TRD')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3894,7 +3894,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('WRT', 'TRS')</t>
+          <t>('TRD', 'TAS')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3904,7 +3904,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('WRT', 'AFS')</t>
+          <t>('TRD', 'AFSA')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3914,7 +3914,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('WRT', 'INF')</t>
+          <t>('TRD', 'IAC')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3924,7 +3924,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('WRT', 'FIN')</t>
+          <t>('TRD', 'FIA')</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3934,7 +3934,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('WRT', 'REA')</t>
+          <t>('TRD', 'REOD')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3944,7 +3944,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('WRT', 'PBS')</t>
+          <t>('TRD', 'PBS')</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3954,7 +3954,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('WRT', 'PAD')</t>
+          <t>('TRD', 'PAD')</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3964,7 +3964,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('WRT', 'EDU')</t>
+          <t>('TRD', 'EDUC')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3974,7 +3974,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('WRT', 'HHS')</t>
+          <t>('TRD', 'HHSW')</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3984,7 +3984,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('WRT', 'OTH')</t>
+          <t>('TRD', 'OS')</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3994,7 +3994,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('TRS', 'AGR')</t>
+          <t>('TAS', 'AFF')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4004,7 +4004,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('TRS', 'MIN')</t>
+          <t>('TAS', 'MAQ')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4014,7 +4014,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('TRS', 'MAN')</t>
+          <t>('TAS', 'MFG')</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4024,7 +4024,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('TRS', 'ESW')</t>
+          <t>('TAS', 'ESWW')</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4034,7 +4034,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('TRS', 'CON')</t>
+          <t>('TAS', 'CNS')</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4044,7 +4044,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('TRS', 'WRT')</t>
+          <t>('TAS', 'TRD')</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4054,7 +4054,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('TRS', 'TRS')</t>
+          <t>('TAS', 'TAS')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4064,7 +4064,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('TRS', 'AFS')</t>
+          <t>('TAS', 'AFSA')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4074,7 +4074,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('TRS', 'INF')</t>
+          <t>('TAS', 'IAC')</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4084,7 +4084,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('TRS', 'FIN')</t>
+          <t>('TAS', 'FIA')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4094,7 +4094,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('TRS', 'REA')</t>
+          <t>('TAS', 'REOD')</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4104,7 +4104,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('TRS', 'PBS')</t>
+          <t>('TAS', 'PBS')</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4114,7 +4114,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('TRS', 'PAD')</t>
+          <t>('TAS', 'PAD')</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4124,7 +4124,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('TRS', 'EDU')</t>
+          <t>('TAS', 'EDUC')</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4134,7 +4134,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('TRS', 'HHS')</t>
+          <t>('TAS', 'HHSW')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4144,7 +4144,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('TRS', 'OTH')</t>
+          <t>('TAS', 'OS')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4154,7 +4154,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('AFS', 'AGR')</t>
+          <t>('AFSA', 'AFF')</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4164,7 +4164,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('AFS', 'MIN')</t>
+          <t>('AFSA', 'MAQ')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4174,7 +4174,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('AFS', 'MAN')</t>
+          <t>('AFSA', 'MFG')</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4184,7 +4184,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('AFS', 'ESW')</t>
+          <t>('AFSA', 'ESWW')</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4194,7 +4194,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('AFS', 'CON')</t>
+          <t>('AFSA', 'CNS')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4204,7 +4204,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('AFS', 'WRT')</t>
+          <t>('AFSA', 'TRD')</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4214,7 +4214,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('AFS', 'TRS')</t>
+          <t>('AFSA', 'TAS')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4224,7 +4224,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('AFS', 'AFS')</t>
+          <t>('AFSA', 'AFSA')</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4234,7 +4234,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('AFS', 'INF')</t>
+          <t>('AFSA', 'IAC')</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4244,7 +4244,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('AFS', 'FIN')</t>
+          <t>('AFSA', 'FIA')</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4254,7 +4254,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('AFS', 'REA')</t>
+          <t>('AFSA', 'REOD')</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4264,7 +4264,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('AFS', 'PBS')</t>
+          <t>('AFSA', 'PBS')</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4274,7 +4274,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('AFS', 'PAD')</t>
+          <t>('AFSA', 'PAD')</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4284,7 +4284,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('AFS', 'EDU')</t>
+          <t>('AFSA', 'EDUC')</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4294,7 +4294,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('AFS', 'HHS')</t>
+          <t>('AFSA', 'HHSW')</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4304,7 +4304,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('AFS', 'OTH')</t>
+          <t>('AFSA', 'OS')</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4314,7 +4314,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('INF', 'AGR')</t>
+          <t>('IAC', 'AFF')</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4324,7 +4324,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('INF', 'MIN')</t>
+          <t>('IAC', 'MAQ')</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4334,7 +4334,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('INF', 'MAN')</t>
+          <t>('IAC', 'MFG')</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4344,7 +4344,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('INF', 'ESW')</t>
+          <t>('IAC', 'ESWW')</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4354,7 +4354,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('INF', 'CON')</t>
+          <t>('IAC', 'CNS')</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4364,7 +4364,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('INF', 'WRT')</t>
+          <t>('IAC', 'TRD')</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4374,7 +4374,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('INF', 'TRS')</t>
+          <t>('IAC', 'TAS')</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4384,7 +4384,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('INF', 'AFS')</t>
+          <t>('IAC', 'AFSA')</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4394,7 +4394,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('INF', 'INF')</t>
+          <t>('IAC', 'IAC')</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4404,7 +4404,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('INF', 'FIN')</t>
+          <t>('IAC', 'FIA')</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4414,7 +4414,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('INF', 'REA')</t>
+          <t>('IAC', 'REOD')</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4424,7 +4424,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('INF', 'PBS')</t>
+          <t>('IAC', 'PBS')</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4434,7 +4434,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('INF', 'PAD')</t>
+          <t>('IAC', 'PAD')</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4444,7 +4444,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('INF', 'EDU')</t>
+          <t>('IAC', 'EDUC')</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4454,7 +4454,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('INF', 'HHS')</t>
+          <t>('IAC', 'HHSW')</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4464,7 +4464,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('INF', 'OTH')</t>
+          <t>('IAC', 'OS')</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4474,7 +4474,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('FIN', 'AGR')</t>
+          <t>('FIA', 'AFF')</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4484,7 +4484,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('FIN', 'MIN')</t>
+          <t>('FIA', 'MAQ')</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4494,7 +4494,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('FIN', 'MAN')</t>
+          <t>('FIA', 'MFG')</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4504,7 +4504,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('FIN', 'ESW')</t>
+          <t>('FIA', 'ESWW')</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4514,7 +4514,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('FIN', 'CON')</t>
+          <t>('FIA', 'CNS')</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4524,7 +4524,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('FIN', 'WRT')</t>
+          <t>('FIA', 'TRD')</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4534,7 +4534,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('FIN', 'TRS')</t>
+          <t>('FIA', 'TAS')</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4544,7 +4544,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('FIN', 'AFS')</t>
+          <t>('FIA', 'AFSA')</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4554,7 +4554,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('FIN', 'INF')</t>
+          <t>('FIA', 'IAC')</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4564,7 +4564,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('FIN', 'FIN')</t>
+          <t>('FIA', 'FIA')</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4574,7 +4574,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('FIN', 'REA')</t>
+          <t>('FIA', 'REOD')</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4584,7 +4584,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('FIN', 'PBS')</t>
+          <t>('FIA', 'PBS')</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4594,7 +4594,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('FIN', 'PAD')</t>
+          <t>('FIA', 'PAD')</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4604,7 +4604,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('FIN', 'EDU')</t>
+          <t>('FIA', 'EDUC')</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4614,7 +4614,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('FIN', 'HHS')</t>
+          <t>('FIA', 'HHSW')</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4624,7 +4624,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('FIN', 'OTH')</t>
+          <t>('FIA', 'OS')</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4634,7 +4634,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('REA', 'AGR')</t>
+          <t>('REOD', 'AFF')</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4644,7 +4644,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('REA', 'MIN')</t>
+          <t>('REOD', 'MAQ')</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4654,7 +4654,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('REA', 'MAN')</t>
+          <t>('REOD', 'MFG')</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4664,7 +4664,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('REA', 'ESW')</t>
+          <t>('REOD', 'ESWW')</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4674,7 +4674,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('REA', 'CON')</t>
+          <t>('REOD', 'CNS')</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4684,7 +4684,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('REA', 'WRT')</t>
+          <t>('REOD', 'TRD')</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -4694,7 +4694,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('REA', 'TRS')</t>
+          <t>('REOD', 'TAS')</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4704,7 +4704,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('REA', 'AFS')</t>
+          <t>('REOD', 'AFSA')</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4714,7 +4714,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('REA', 'INF')</t>
+          <t>('REOD', 'IAC')</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4724,7 +4724,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('REA', 'FIN')</t>
+          <t>('REOD', 'FIA')</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4734,7 +4734,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('REA', 'REA')</t>
+          <t>('REOD', 'REOD')</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4744,7 +4744,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('REA', 'PBS')</t>
+          <t>('REOD', 'PBS')</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4754,7 +4754,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('REA', 'PAD')</t>
+          <t>('REOD', 'PAD')</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4764,7 +4764,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('REA', 'EDU')</t>
+          <t>('REOD', 'EDUC')</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4774,7 +4774,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('REA', 'HHS')</t>
+          <t>('REOD', 'HHSW')</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4784,7 +4784,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('REA', 'OTH')</t>
+          <t>('REOD', 'OS')</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4794,7 +4794,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('PBS', 'AGR')</t>
+          <t>('PBS', 'AFF')</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4804,7 +4804,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('PBS', 'MIN')</t>
+          <t>('PBS', 'MAQ')</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4814,7 +4814,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('PBS', 'MAN')</t>
+          <t>('PBS', 'MFG')</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4824,7 +4824,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('PBS', 'ESW')</t>
+          <t>('PBS', 'ESWW')</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4834,7 +4834,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('PBS', 'CON')</t>
+          <t>('PBS', 'CNS')</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4844,7 +4844,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('PBS', 'WRT')</t>
+          <t>('PBS', 'TRD')</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4854,7 +4854,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('PBS', 'TRS')</t>
+          <t>('PBS', 'TAS')</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4864,7 +4864,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('PBS', 'AFS')</t>
+          <t>('PBS', 'AFSA')</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4874,7 +4874,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('PBS', 'INF')</t>
+          <t>('PBS', 'IAC')</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4884,7 +4884,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('PBS', 'FIN')</t>
+          <t>('PBS', 'FIA')</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4894,7 +4894,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('PBS', 'REA')</t>
+          <t>('PBS', 'REOD')</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4924,7 +4924,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('PBS', 'EDU')</t>
+          <t>('PBS', 'EDUC')</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4934,7 +4934,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('PBS', 'HHS')</t>
+          <t>('PBS', 'HHSW')</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -4944,7 +4944,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('PBS', 'OTH')</t>
+          <t>('PBS', 'OS')</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4954,7 +4954,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('PAD', 'AGR')</t>
+          <t>('PAD', 'AFF')</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4964,7 +4964,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('PAD', 'MIN')</t>
+          <t>('PAD', 'MAQ')</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4974,7 +4974,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('PAD', 'MAN')</t>
+          <t>('PAD', 'MFG')</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4984,7 +4984,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('PAD', 'ESW')</t>
+          <t>('PAD', 'ESWW')</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -4994,7 +4994,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('PAD', 'CON')</t>
+          <t>('PAD', 'CNS')</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -5004,7 +5004,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('PAD', 'WRT')</t>
+          <t>('PAD', 'TRD')</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -5014,7 +5014,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('PAD', 'TRS')</t>
+          <t>('PAD', 'TAS')</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -5024,7 +5024,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('PAD', 'AFS')</t>
+          <t>('PAD', 'AFSA')</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5034,7 +5034,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('PAD', 'INF')</t>
+          <t>('PAD', 'IAC')</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5044,7 +5044,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('PAD', 'FIN')</t>
+          <t>('PAD', 'FIA')</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5054,7 +5054,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('PAD', 'REA')</t>
+          <t>('PAD', 'REOD')</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5084,7 +5084,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('PAD', 'EDU')</t>
+          <t>('PAD', 'EDUC')</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5094,7 +5094,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('PAD', 'HHS')</t>
+          <t>('PAD', 'HHSW')</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -5104,7 +5104,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('PAD', 'OTH')</t>
+          <t>('PAD', 'OS')</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -5114,7 +5114,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('EDU', 'AGR')</t>
+          <t>('EDUC', 'AFF')</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -5124,7 +5124,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('EDU', 'MIN')</t>
+          <t>('EDUC', 'MAQ')</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -5134,7 +5134,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('EDU', 'MAN')</t>
+          <t>('EDUC', 'MFG')</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -5144,7 +5144,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('EDU', 'ESW')</t>
+          <t>('EDUC', 'ESWW')</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -5154,7 +5154,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('EDU', 'CON')</t>
+          <t>('EDUC', 'CNS')</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -5164,7 +5164,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('EDU', 'WRT')</t>
+          <t>('EDUC', 'TRD')</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -5174,7 +5174,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('EDU', 'TRS')</t>
+          <t>('EDUC', 'TAS')</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -5184,7 +5184,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('EDU', 'AFS')</t>
+          <t>('EDUC', 'AFSA')</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -5194,7 +5194,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('EDU', 'INF')</t>
+          <t>('EDUC', 'IAC')</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -5204,7 +5204,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('EDU', 'FIN')</t>
+          <t>('EDUC', 'FIA')</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5214,7 +5214,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('EDU', 'REA')</t>
+          <t>('EDUC', 'REOD')</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -5224,7 +5224,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('EDU', 'PBS')</t>
+          <t>('EDUC', 'PBS')</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5234,7 +5234,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('EDU', 'PAD')</t>
+          <t>('EDUC', 'PAD')</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -5244,7 +5244,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('EDU', 'EDU')</t>
+          <t>('EDUC', 'EDUC')</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -5254,7 +5254,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('EDU', 'HHS')</t>
+          <t>('EDUC', 'HHSW')</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -5264,7 +5264,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('EDU', 'OTH')</t>
+          <t>('EDUC', 'OS')</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -5274,7 +5274,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('HHS', 'AGR')</t>
+          <t>('HHSW', 'AFF')</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -5284,7 +5284,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>('HHS', 'MIN')</t>
+          <t>('HHSW', 'MAQ')</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -5294,7 +5294,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('HHS', 'MAN')</t>
+          <t>('HHSW', 'MFG')</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -5304,7 +5304,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('HHS', 'ESW')</t>
+          <t>('HHSW', 'ESWW')</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -5314,7 +5314,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>('HHS', 'CON')</t>
+          <t>('HHSW', 'CNS')</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -5324,7 +5324,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('HHS', 'WRT')</t>
+          <t>('HHSW', 'TRD')</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -5334,7 +5334,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('HHS', 'TRS')</t>
+          <t>('HHSW', 'TAS')</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -5344,7 +5344,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('HHS', 'AFS')</t>
+          <t>('HHSW', 'AFSA')</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5354,7 +5354,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('HHS', 'INF')</t>
+          <t>('HHSW', 'IAC')</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5364,7 +5364,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('HHS', 'FIN')</t>
+          <t>('HHSW', 'FIA')</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5374,7 +5374,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('HHS', 'REA')</t>
+          <t>('HHSW', 'REOD')</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5384,7 +5384,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('HHS', 'PBS')</t>
+          <t>('HHSW', 'PBS')</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -5394,7 +5394,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('HHS', 'PAD')</t>
+          <t>('HHSW', 'PAD')</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -5404,7 +5404,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('HHS', 'EDU')</t>
+          <t>('HHSW', 'EDUC')</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -5414,7 +5414,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('HHS', 'HHS')</t>
+          <t>('HHSW', 'HHSW')</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -5424,7 +5424,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('HHS', 'OTH')</t>
+          <t>('HHSW', 'OS')</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -5434,7 +5434,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('OTH', 'AGR')</t>
+          <t>('OS', 'AFF')</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -5444,7 +5444,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('OTH', 'MIN')</t>
+          <t>('OS', 'MAQ')</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -5454,7 +5454,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('OTH', 'MAN')</t>
+          <t>('OS', 'MFG')</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5464,7 +5464,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>('OTH', 'ESW')</t>
+          <t>('OS', 'ESWW')</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -5474,7 +5474,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('OTH', 'CON')</t>
+          <t>('OS', 'CNS')</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -5484,7 +5484,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('OTH', 'WRT')</t>
+          <t>('OS', 'TRD')</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -5494,7 +5494,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('OTH', 'TRS')</t>
+          <t>('OS', 'TAS')</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -5504,7 +5504,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>('OTH', 'AFS')</t>
+          <t>('OS', 'AFSA')</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -5514,7 +5514,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('OTH', 'INF')</t>
+          <t>('OS', 'IAC')</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -5524,7 +5524,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>('OTH', 'FIN')</t>
+          <t>('OS', 'FIA')</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -5534,7 +5534,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('OTH', 'REA')</t>
+          <t>('OS', 'REOD')</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -5544,7 +5544,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('OTH', 'PBS')</t>
+          <t>('OS', 'PBS')</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -5554,7 +5554,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('OTH', 'PAD')</t>
+          <t>('OS', 'PAD')</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5564,7 +5564,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('OTH', 'EDU')</t>
+          <t>('OS', 'EDUC')</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -5574,7 +5574,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>('OTH', 'HHS')</t>
+          <t>('OS', 'HHSW')</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -5584,7 +5584,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('OTH', 'OTH')</t>
+          <t>('OS', 'OS')</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -5621,7 +5621,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5631,7 +5631,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5641,7 +5641,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5651,7 +5651,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5661,7 +5661,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5671,7 +5671,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5681,7 +5681,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5691,7 +5691,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5701,7 +5701,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5711,7 +5711,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5721,7 +5721,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5751,7 +5751,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5761,7 +5761,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5771,7 +5771,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5808,7 +5808,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5818,7 +5818,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5828,7 +5828,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5838,7 +5838,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5848,7 +5848,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5858,7 +5858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5868,7 +5868,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5878,7 +5878,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5888,7 +5888,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5898,7 +5898,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5908,7 +5908,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5938,7 +5938,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5948,7 +5948,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5958,7 +5958,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5995,7 +5995,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6005,7 +6005,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6015,7 +6015,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6025,7 +6025,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6035,7 +6035,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6045,7 +6045,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6055,7 +6055,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6065,7 +6065,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6075,7 +6075,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6085,7 +6085,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6095,7 +6095,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6125,7 +6125,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6135,7 +6135,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6145,7 +6145,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6182,7 +6182,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6192,7 +6192,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6202,7 +6202,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6212,7 +6212,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6222,7 +6222,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6232,7 +6232,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6242,7 +6242,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6252,7 +6252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6262,7 +6262,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6272,7 +6272,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6282,7 +6282,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6312,7 +6312,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6322,7 +6322,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6332,7 +6332,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6369,7 +6369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6379,7 +6379,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6389,7 +6389,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6399,7 +6399,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6409,7 +6409,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6419,7 +6419,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6429,7 +6429,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6439,7 +6439,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6449,7 +6449,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6459,7 +6459,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6469,7 +6469,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6499,7 +6499,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6509,7 +6509,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6519,7 +6519,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6556,7 +6556,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6566,7 +6566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6576,7 +6576,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6586,7 +6586,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6596,7 +6596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6606,7 +6606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6616,7 +6616,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6626,7 +6626,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6636,7 +6636,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6646,7 +6646,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6656,7 +6656,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6686,7 +6686,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6696,7 +6696,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6706,7 +6706,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
